--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_27.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_27.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nanami Nakajima</t>
+          <t>Sotaro Hayashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
